--- a/trunk/수정리스트_20160803.xlsx
+++ b/trunk/수정리스트_20160803.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="1800" yWindow="195" windowWidth="24240" windowHeight="12435"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="308">
   <si>
     <t>날짜</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1247,10 +1247,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>재확인요청</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>확인됨.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1295,14 +1291,19 @@
   </si>
   <si>
     <t>하단의 닫기버튼 옆에 "이동" 버튼 아이콘 추가해주세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">라운딩 박스가 텍스트에 따라 자동으로 늘어나는건 안되고요..
+이유는 센터 정렬과 '…' 기능때문에 라운딩 박스는 고정(%)으로 가야됩니다. </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1358,7 +1359,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1413,12 +1414,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -1460,7 +1455,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1575,9 +1570,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1627,7 +1619,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1671,7 +1663,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1715,7 +1707,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1759,7 +1751,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1803,7 +1795,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1901,7 +1893,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1936,7 +1927,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2112,14 +2102,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D112" sqref="D112"/>
+    <sheetView tabSelected="1" topLeftCell="B103" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I109" sqref="I109"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="19.875" style="15" customWidth="1"/>
     <col min="2" max="2" width="19.875" style="2" customWidth="1"/>
@@ -2132,20 +2122,20 @@
     <col min="9" max="9" width="60.125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:9" ht="26.25" customHeight="1">
+      <c r="A1" s="39" t="s">
         <v>239</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-    </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+    </row>
+    <row r="2" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -2174,7 +2164,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" s="4" customFormat="1">
       <c r="A3" s="7" t="s">
         <v>12</v>
       </c>
@@ -2193,7 +2183,7 @@
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
     </row>
-    <row r="4" spans="1:9" s="4" customFormat="1" ht="36" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" s="4" customFormat="1" ht="36">
       <c r="A4" s="7" t="s">
         <v>12</v>
       </c>
@@ -2210,7 +2200,7 @@
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
     </row>
-    <row r="5" spans="1:9" s="12" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" s="12" customFormat="1" ht="32.25" customHeight="1">
       <c r="A5" s="10" t="s">
         <v>12</v>
       </c>
@@ -2233,7 +2223,7 @@
       </c>
       <c r="I5" s="10"/>
     </row>
-    <row r="6" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" s="12" customFormat="1">
       <c r="A6" s="10" t="s">
         <v>12</v>
       </c>
@@ -2258,7 +2248,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" s="12" customFormat="1">
       <c r="A7" s="10" t="s">
         <v>12</v>
       </c>
@@ -2281,7 +2271,7 @@
       </c>
       <c r="I7" s="10"/>
     </row>
-    <row r="8" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" s="12" customFormat="1">
       <c r="A8" s="10" t="s">
         <v>12</v>
       </c>
@@ -2304,7 +2294,7 @@
       </c>
       <c r="I8" s="10"/>
     </row>
-    <row r="9" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" s="12" customFormat="1">
       <c r="A9" s="10" t="s">
         <v>12</v>
       </c>
@@ -2329,7 +2319,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="19" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" s="19" customFormat="1" ht="16.5" customHeight="1">
       <c r="A10" s="16" t="s">
         <v>12</v>
       </c>
@@ -2354,7 +2344,7 @@
       </c>
       <c r="I10" s="16"/>
     </row>
-    <row r="11" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" s="19" customFormat="1">
       <c r="A11" s="16" t="s">
         <v>12</v>
       </c>
@@ -2379,7 +2369,7 @@
       </c>
       <c r="I11" s="16"/>
     </row>
-    <row r="12" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" s="12" customFormat="1">
       <c r="A12" s="10" t="s">
         <v>12</v>
       </c>
@@ -2402,7 +2392,7 @@
       </c>
       <c r="I12" s="10"/>
     </row>
-    <row r="13" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" s="12" customFormat="1">
       <c r="A13" s="10" t="s">
         <v>12</v>
       </c>
@@ -2425,7 +2415,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="27" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" s="27" customFormat="1" ht="6.75" customHeight="1">
       <c r="A14" s="25"/>
       <c r="B14" s="25"/>
       <c r="C14" s="25"/>
@@ -2436,7 +2426,7 @@
       <c r="H14" s="25"/>
       <c r="I14" s="25"/>
     </row>
-    <row r="15" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" s="12" customFormat="1">
       <c r="A15" s="10" t="s">
         <v>13</v>
       </c>
@@ -2457,7 +2447,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="19" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" s="19" customFormat="1" ht="24">
       <c r="A16" s="16" t="s">
         <v>13</v>
       </c>
@@ -2484,7 +2474,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" s="12" customFormat="1">
       <c r="A17" s="10" t="s">
         <v>13</v>
       </c>
@@ -2503,7 +2493,7 @@
       <c r="H17" s="10"/>
       <c r="I17" s="10"/>
     </row>
-    <row r="18" spans="1:9" s="27" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" s="27" customFormat="1" ht="6.75" customHeight="1">
       <c r="A18" s="25"/>
       <c r="B18" s="25"/>
       <c r="C18" s="25"/>
@@ -2514,7 +2504,7 @@
       <c r="H18" s="25"/>
       <c r="I18" s="25"/>
     </row>
-    <row r="19" spans="1:9" s="22" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" s="22" customFormat="1" ht="24" customHeight="1">
       <c r="A19" s="16" t="s">
         <v>32</v>
       </c>
@@ -2541,7 +2531,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="19" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" s="19" customFormat="1" ht="26.25" customHeight="1">
       <c r="A20" s="16" t="s">
         <v>47</v>
       </c>
@@ -2568,7 +2558,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="19" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" s="19" customFormat="1" ht="33" customHeight="1">
       <c r="A21" s="16" t="s">
         <v>48</v>
       </c>
@@ -2595,7 +2585,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="19" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" s="19" customFormat="1" ht="33" customHeight="1">
       <c r="A22" s="16" t="s">
         <v>61</v>
       </c>
@@ -2620,7 +2610,7 @@
       </c>
       <c r="I22" s="23"/>
     </row>
-    <row r="23" spans="1:9" s="19" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" s="19" customFormat="1" ht="33" customHeight="1">
       <c r="A23" s="16" t="s">
         <v>70</v>
       </c>
@@ -2643,7 +2633,7 @@
       </c>
       <c r="I23" s="23"/>
     </row>
-    <row r="24" spans="1:9" s="19" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" s="19" customFormat="1" ht="33" customHeight="1">
       <c r="A24" s="16" t="s">
         <v>61</v>
       </c>
@@ -2668,7 +2658,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1">
       <c r="A25" s="16" t="s">
         <v>80</v>
       </c>
@@ -2693,7 +2683,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1">
       <c r="A26" s="16" t="s">
         <v>86</v>
       </c>
@@ -2720,7 +2710,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1">
       <c r="A27" s="16" t="s">
         <v>86</v>
       </c>
@@ -2747,7 +2737,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1">
       <c r="A28" s="16" t="s">
         <v>86</v>
       </c>
@@ -2772,7 +2762,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="29" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1">
       <c r="A29" s="16" t="s">
         <v>96</v>
       </c>
@@ -2795,7 +2785,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1">
       <c r="A30" s="16" t="s">
         <v>96</v>
       </c>
@@ -2818,7 +2808,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="31" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1">
       <c r="A31" s="16" t="s">
         <v>96</v>
       </c>
@@ -2843,7 +2833,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="32" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1">
       <c r="A32" s="16" t="s">
         <v>96</v>
       </c>
@@ -2864,7 +2854,7 @@
       <c r="H32" s="16"/>
       <c r="I32" s="23"/>
     </row>
-    <row r="33" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1">
       <c r="A33" s="16" t="s">
         <v>96</v>
       </c>
@@ -2887,7 +2877,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="34" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1">
       <c r="A34" s="16" t="s">
         <v>96</v>
       </c>
@@ -2908,7 +2898,7 @@
       <c r="H34" s="16"/>
       <c r="I34" s="23"/>
     </row>
-    <row r="35" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1">
       <c r="A35" s="16" t="s">
         <v>96</v>
       </c>
@@ -2929,7 +2919,7 @@
       <c r="H35" s="16"/>
       <c r="I35" s="23"/>
     </row>
-    <row r="36" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1">
       <c r="A36" s="16" t="s">
         <v>96</v>
       </c>
@@ -2950,7 +2940,7 @@
       <c r="H36" s="16"/>
       <c r="I36" s="23"/>
     </row>
-    <row r="37" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1">
       <c r="A37" s="16" t="s">
         <v>96</v>
       </c>
@@ -2971,7 +2961,7 @@
       <c r="H37" s="16"/>
       <c r="I37" s="23"/>
     </row>
-    <row r="38" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1">
       <c r="A38" s="16" t="s">
         <v>96</v>
       </c>
@@ -2992,7 +2982,7 @@
       <c r="H38" s="16"/>
       <c r="I38" s="23"/>
     </row>
-    <row r="39" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1">
       <c r="A39" s="16" t="s">
         <v>96</v>
       </c>
@@ -3013,7 +3003,7 @@
       <c r="H39" s="16"/>
       <c r="I39" s="23"/>
     </row>
-    <row r="40" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1">
       <c r="A40" s="16" t="s">
         <v>96</v>
       </c>
@@ -3034,7 +3024,7 @@
       <c r="H40" s="16"/>
       <c r="I40" s="23"/>
     </row>
-    <row r="41" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1">
       <c r="A41" s="16" t="s">
         <v>96</v>
       </c>
@@ -3055,7 +3045,7 @@
       <c r="H41" s="16"/>
       <c r="I41" s="23"/>
     </row>
-    <row r="42" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
       <c r="A42" s="16" t="s">
         <v>123</v>
       </c>
@@ -3076,7 +3066,7 @@
       <c r="H42" s="16"/>
       <c r="I42" s="23"/>
     </row>
-    <row r="43" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
       <c r="A43" s="16" t="s">
         <v>123</v>
       </c>
@@ -3097,7 +3087,7 @@
       <c r="H43" s="16"/>
       <c r="I43" s="23"/>
     </row>
-    <row r="44" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
       <c r="A44" s="16" t="s">
         <v>123</v>
       </c>
@@ -3120,7 +3110,7 @@
       <c r="H44" s="16"/>
       <c r="I44" s="23"/>
     </row>
-    <row r="45" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
       <c r="A45" s="16" t="s">
         <v>123</v>
       </c>
@@ -3141,7 +3131,7 @@
       <c r="H45" s="16"/>
       <c r="I45" s="23"/>
     </row>
-    <row r="46" spans="1:9" s="27" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" s="27" customFormat="1" ht="9" customHeight="1">
       <c r="A46" s="25"/>
       <c r="B46" s="35"/>
       <c r="C46" s="35"/>
@@ -3152,7 +3142,7 @@
       <c r="H46" s="25"/>
       <c r="I46" s="35"/>
     </row>
-    <row r="47" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
       <c r="A47" s="16" t="s">
         <v>203</v>
       </c>
@@ -3173,7 +3163,7 @@
       <c r="H47" s="16"/>
       <c r="I47" s="23"/>
     </row>
-    <row r="48" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
       <c r="A48" s="16" t="s">
         <v>203</v>
       </c>
@@ -3194,7 +3184,7 @@
       <c r="H48" s="16"/>
       <c r="I48" s="23"/>
     </row>
-    <row r="49" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
       <c r="A49" s="16" t="s">
         <v>203</v>
       </c>
@@ -3215,7 +3205,7 @@
       <c r="H49" s="16"/>
       <c r="I49" s="23"/>
     </row>
-    <row r="50" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
       <c r="A50" s="16" t="s">
         <v>203</v>
       </c>
@@ -3238,7 +3228,7 @@
       <c r="H50" s="16"/>
       <c r="I50" s="23"/>
     </row>
-    <row r="51" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
       <c r="A51" s="16" t="s">
         <v>203</v>
       </c>
@@ -3261,7 +3251,7 @@
       <c r="H51" s="16"/>
       <c r="I51" s="23"/>
     </row>
-    <row r="52" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
       <c r="A52" s="16" t="s">
         <v>203</v>
       </c>
@@ -3284,7 +3274,7 @@
       <c r="H52" s="16"/>
       <c r="I52" s="23"/>
     </row>
-    <row r="53" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
       <c r="A53" s="16" t="s">
         <v>203</v>
       </c>
@@ -3307,7 +3297,7 @@
       <c r="H53" s="16"/>
       <c r="I53" s="23"/>
     </row>
-    <row r="54" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
       <c r="A54" s="16" t="s">
         <v>203</v>
       </c>
@@ -3330,7 +3320,7 @@
       <c r="H54" s="16"/>
       <c r="I54" s="23"/>
     </row>
-    <row r="55" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
       <c r="A55" s="16" t="s">
         <v>203</v>
       </c>
@@ -3353,7 +3343,7 @@
       <c r="H55" s="16"/>
       <c r="I55" s="23"/>
     </row>
-    <row r="56" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
       <c r="A56" s="16" t="s">
         <v>203</v>
       </c>
@@ -3376,7 +3366,7 @@
       <c r="H56" s="16"/>
       <c r="I56" s="23"/>
     </row>
-    <row r="57" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
       <c r="A57" s="16" t="s">
         <v>203</v>
       </c>
@@ -3399,7 +3389,7 @@
       <c r="H57" s="16"/>
       <c r="I57" s="23"/>
     </row>
-    <row r="58" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
       <c r="A58" s="16" t="s">
         <v>203</v>
       </c>
@@ -3422,7 +3412,7 @@
       <c r="H58" s="16"/>
       <c r="I58" s="23"/>
     </row>
-    <row r="59" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
       <c r="A59" s="16" t="s">
         <v>203</v>
       </c>
@@ -3445,7 +3435,7 @@
       <c r="H59" s="16"/>
       <c r="I59" s="23"/>
     </row>
-    <row r="60" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
       <c r="A60" s="16" t="s">
         <v>203</v>
       </c>
@@ -3468,7 +3458,7 @@
       <c r="H60" s="16"/>
       <c r="I60" s="23"/>
     </row>
-    <row r="61" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
       <c r="A61" s="16" t="s">
         <v>203</v>
       </c>
@@ -3489,7 +3479,7 @@
       <c r="H61" s="16"/>
       <c r="I61" s="23"/>
     </row>
-    <row r="62" spans="1:9" s="27" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" s="27" customFormat="1" ht="9" customHeight="1">
       <c r="A62" s="25"/>
       <c r="B62" s="25"/>
       <c r="C62" s="25"/>
@@ -3500,7 +3490,7 @@
       <c r="H62" s="25"/>
       <c r="I62" s="25"/>
     </row>
-    <row r="63" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
       <c r="A63" s="16" t="s">
         <v>160</v>
       </c>
@@ -3523,7 +3513,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="64" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
       <c r="A64" s="16" t="s">
         <v>160</v>
       </c>
@@ -3544,7 +3534,7 @@
       <c r="H64" s="16"/>
       <c r="I64" s="23"/>
     </row>
-    <row r="65" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
       <c r="A65" s="16" t="s">
         <v>160</v>
       </c>
@@ -3567,7 +3557,7 @@
       <c r="H65" s="16"/>
       <c r="I65" s="23"/>
     </row>
-    <row r="66" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
       <c r="A66" s="16" t="s">
         <v>160</v>
       </c>
@@ -3592,7 +3582,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="67" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
       <c r="A67" s="16" t="s">
         <v>160</v>
       </c>
@@ -3617,7 +3607,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="68" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
       <c r="A68" s="16" t="s">
         <v>160</v>
       </c>
@@ -3640,7 +3630,7 @@
       <c r="H68" s="16"/>
       <c r="I68" s="23"/>
     </row>
-    <row r="69" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
       <c r="A69" s="16" t="s">
         <v>160</v>
       </c>
@@ -3663,7 +3653,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="70" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
       <c r="A70" s="16" t="s">
         <v>160</v>
       </c>
@@ -3686,7 +3676,7 @@
       <c r="H70" s="16"/>
       <c r="I70" s="23"/>
     </row>
-    <row r="71" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
       <c r="A71" s="16" t="s">
         <v>160</v>
       </c>
@@ -3707,7 +3697,7 @@
       <c r="H71" s="16"/>
       <c r="I71" s="23"/>
     </row>
-    <row r="72" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
       <c r="A72" s="16" t="s">
         <v>160</v>
       </c>
@@ -3732,7 +3722,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="73" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
       <c r="A73" s="16" t="s">
         <v>160</v>
       </c>
@@ -3755,7 +3745,7 @@
       <c r="H73" s="16"/>
       <c r="I73" s="23"/>
     </row>
-    <row r="74" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
       <c r="A74" s="16" t="s">
         <v>160</v>
       </c>
@@ -3778,7 +3768,7 @@
       <c r="H74" s="16"/>
       <c r="I74" s="23"/>
     </row>
-    <row r="75" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
       <c r="A75" s="16" t="s">
         <v>160</v>
       </c>
@@ -3801,7 +3791,7 @@
       <c r="H75" s="16"/>
       <c r="I75" s="23"/>
     </row>
-    <row r="76" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
       <c r="A76" s="16" t="s">
         <v>160</v>
       </c>
@@ -3824,7 +3814,7 @@
       <c r="H76" s="16"/>
       <c r="I76" s="23"/>
     </row>
-    <row r="77" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
       <c r="A77" s="16" t="s">
         <v>160</v>
       </c>
@@ -3849,7 +3839,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="78" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
       <c r="A78" s="16" t="s">
         <v>160</v>
       </c>
@@ -3872,7 +3862,7 @@
       <c r="H78" s="16"/>
       <c r="I78" s="23"/>
     </row>
-    <row r="79" spans="1:9" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" s="19" customFormat="1" ht="45" customHeight="1">
       <c r="A79" s="16" t="s">
         <v>160</v>
       </c>
@@ -3895,7 +3885,7 @@
       <c r="H79" s="16"/>
       <c r="I79" s="23"/>
     </row>
-    <row r="80" spans="1:9" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" s="19" customFormat="1" ht="45" customHeight="1">
       <c r="A80" s="16" t="s">
         <v>160</v>
       </c>
@@ -3918,7 +3908,7 @@
       <c r="H80" s="16"/>
       <c r="I80" s="23"/>
     </row>
-    <row r="81" spans="1:9" s="19" customFormat="1" ht="111" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" s="19" customFormat="1" ht="111" customHeight="1">
       <c r="A81" s="16" t="s">
         <v>160</v>
       </c>
@@ -3941,7 +3931,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="82" spans="1:9" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" s="19" customFormat="1" ht="45" customHeight="1">
       <c r="A82" s="16" t="s">
         <v>160</v>
       </c>
@@ -3964,7 +3954,7 @@
       <c r="H82" s="16"/>
       <c r="I82" s="23"/>
     </row>
-    <row r="83" spans="1:9" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" s="19" customFormat="1" ht="45" customHeight="1">
       <c r="A83" s="16" t="s">
         <v>203</v>
       </c>
@@ -3987,7 +3977,7 @@
       <c r="H83" s="16"/>
       <c r="I83" s="23"/>
     </row>
-    <row r="84" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
       <c r="A84" s="16" t="s">
         <v>160</v>
       </c>
@@ -4010,7 +4000,7 @@
       <c r="H84" s="16"/>
       <c r="I84" s="23"/>
     </row>
-    <row r="85" spans="1:9" s="19" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" s="19" customFormat="1" ht="43.5" customHeight="1">
       <c r="A85" s="16" t="s">
         <v>160</v>
       </c>
@@ -4035,7 +4025,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="86" spans="1:9" s="19" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" s="19" customFormat="1" ht="43.5" customHeight="1">
       <c r="A86" s="16" t="s">
         <v>245</v>
       </c>
@@ -4058,7 +4048,7 @@
       <c r="H86" s="16"/>
       <c r="I86" s="23"/>
     </row>
-    <row r="87" spans="1:9" s="19" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" s="19" customFormat="1" ht="43.5" customHeight="1">
       <c r="A87" s="16" t="s">
         <v>253</v>
       </c>
@@ -4081,7 +4071,7 @@
       <c r="H87" s="16"/>
       <c r="I87" s="23"/>
     </row>
-    <row r="88" spans="1:9" s="19" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" s="19" customFormat="1" ht="43.5" customHeight="1">
       <c r="A88" s="16" t="s">
         <v>253</v>
       </c>
@@ -4104,7 +4094,7 @@
       <c r="H88" s="16"/>
       <c r="I88" s="23"/>
     </row>
-    <row r="89" spans="1:9" s="19" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" s="19" customFormat="1" ht="43.5" customHeight="1">
       <c r="A89" s="16" t="s">
         <v>253</v>
       </c>
@@ -4127,7 +4117,7 @@
       <c r="H89" s="16"/>
       <c r="I89" s="23"/>
     </row>
-    <row r="90" spans="1:9" s="19" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" s="19" customFormat="1" ht="60.75" customHeight="1">
       <c r="A90" s="16" t="s">
         <v>253</v>
       </c>
@@ -4152,7 +4142,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="91" spans="1:9" s="19" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" s="19" customFormat="1" ht="60.75" customHeight="1">
       <c r="A91" s="16" t="s">
         <v>253</v>
       </c>
@@ -4175,20 +4165,20 @@
       <c r="H91" s="16"/>
       <c r="I91" s="17"/>
     </row>
-    <row r="92" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="41" t="s">
+    <row r="92" spans="1:9" ht="40.5" customHeight="1">
+      <c r="A92" s="40" t="s">
         <v>238</v>
       </c>
-      <c r="B92" s="41"/>
-      <c r="C92" s="41"/>
-      <c r="D92" s="41"/>
-      <c r="E92" s="41"/>
-      <c r="F92" s="41"/>
-      <c r="G92" s="41"/>
-      <c r="H92" s="41"/>
-      <c r="I92" s="41"/>
-    </row>
-    <row r="93" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B92" s="40"/>
+      <c r="C92" s="40"/>
+      <c r="D92" s="40"/>
+      <c r="E92" s="40"/>
+      <c r="F92" s="40"/>
+      <c r="G92" s="40"/>
+      <c r="H92" s="40"/>
+      <c r="I92" s="40"/>
+    </row>
+    <row r="93" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1">
       <c r="A93" s="5" t="s">
         <v>0</v>
       </c>
@@ -4217,7 +4207,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1">
       <c r="A94" s="16" t="s">
         <v>96</v>
       </c>
@@ -4242,7 +4232,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="95" spans="1:9" s="19" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" s="19" customFormat="1" ht="40.5" customHeight="1">
       <c r="A95" s="16" t="s">
         <v>160</v>
       </c>
@@ -4265,7 +4255,7 @@
       <c r="H95" s="16"/>
       <c r="I95" s="23"/>
     </row>
-    <row r="96" spans="1:9" s="19" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" s="19" customFormat="1" ht="39.75" customHeight="1">
       <c r="A96" s="16" t="s">
         <v>160</v>
       </c>
@@ -4288,7 +4278,7 @@
       <c r="H96" s="16"/>
       <c r="I96" s="23"/>
     </row>
-    <row r="97" spans="1:9" s="19" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" s="19" customFormat="1" ht="39.75" customHeight="1">
       <c r="A97" s="16" t="s">
         <v>241</v>
       </c>
@@ -4309,7 +4299,7 @@
       <c r="H97" s="16"/>
       <c r="I97" s="23"/>
     </row>
-    <row r="98" spans="1:9" s="19" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" s="19" customFormat="1" ht="39.75" customHeight="1">
       <c r="A98" s="16" t="s">
         <v>241</v>
       </c>
@@ -4330,7 +4320,7 @@
       <c r="H98" s="16"/>
       <c r="I98" s="23"/>
     </row>
-    <row r="99" spans="1:9" s="19" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" s="19" customFormat="1" ht="39.75" customHeight="1">
       <c r="A99" s="16" t="s">
         <v>267</v>
       </c>
@@ -4353,7 +4343,7 @@
       <c r="H99" s="16"/>
       <c r="I99" s="23"/>
     </row>
-    <row r="100" spans="1:9" s="19" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" s="19" customFormat="1" ht="39.75" customHeight="1">
       <c r="A100" s="16" t="s">
         <v>267</v>
       </c>
@@ -4376,7 +4366,7 @@
       <c r="H100" s="16"/>
       <c r="I100" s="23"/>
     </row>
-    <row r="101" spans="1:9" s="19" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" s="19" customFormat="1" ht="39.75" customHeight="1">
       <c r="A101" s="16" t="s">
         <v>270</v>
       </c>
@@ -4397,7 +4387,7 @@
       <c r="H101" s="16"/>
       <c r="I101" s="23"/>
     </row>
-    <row r="102" spans="1:9" s="19" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" s="19" customFormat="1" ht="39.75" customHeight="1">
       <c r="A102" s="16" t="s">
         <v>270</v>
       </c>
@@ -4418,7 +4408,7 @@
       <c r="H102" s="16"/>
       <c r="I102" s="23"/>
     </row>
-    <row r="103" spans="1:9" s="19" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" s="19" customFormat="1" ht="39.75" customHeight="1">
       <c r="A103" s="16" t="s">
         <v>270</v>
       </c>
@@ -4439,7 +4429,7 @@
       <c r="H103" s="16"/>
       <c r="I103" s="23"/>
     </row>
-    <row r="104" spans="1:9" s="19" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" s="19" customFormat="1" ht="33" customHeight="1">
       <c r="A104" s="16" t="s">
         <v>270</v>
       </c>
@@ -4462,7 +4452,7 @@
       <c r="H104" s="16"/>
       <c r="I104" s="23"/>
     </row>
-    <row r="105" spans="1:9" s="19" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" s="19" customFormat="1" ht="104.25" customHeight="1">
       <c r="A105" s="16" t="s">
         <v>281</v>
       </c>
@@ -4470,13 +4460,13 @@
         <v>287</v>
       </c>
       <c r="C105" s="33" t="s">
-        <v>293</v>
-      </c>
-      <c r="D105" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="D105" s="38" t="s">
         <v>295</v>
       </c>
-      <c r="E105" s="16" t="s">
-        <v>296</v>
+      <c r="E105" s="31" t="s">
+        <v>25</v>
       </c>
       <c r="F105" s="16"/>
       <c r="G105" s="16" t="s">
@@ -4485,20 +4475,20 @@
       <c r="H105" s="16"/>
       <c r="I105" s="23"/>
     </row>
-    <row r="106" spans="1:9" s="19" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" s="19" customFormat="1" ht="39.75" customHeight="1">
       <c r="A106" s="16" t="s">
         <v>282</v>
       </c>
       <c r="B106" s="23"/>
       <c r="C106" s="33"/>
-      <c r="D106" s="39" t="s">
+      <c r="D106" s="38" t="s">
         <v>286</v>
       </c>
       <c r="E106" s="31" t="s">
         <v>25</v>
       </c>
       <c r="F106" s="16" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G106" s="16" t="s">
         <v>103</v>
@@ -4506,7 +4496,7 @@
       <c r="H106" s="16"/>
       <c r="I106" s="23"/>
     </row>
-    <row r="107" spans="1:9" s="19" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" s="19" customFormat="1" ht="73.5" customHeight="1">
       <c r="A107" s="16"/>
       <c r="B107" s="23" t="s">
         <v>283</v>
@@ -4514,14 +4504,14 @@
       <c r="C107" s="33" t="s">
         <v>293</v>
       </c>
-      <c r="D107" s="39" t="s">
+      <c r="D107" s="38" t="s">
+        <v>297</v>
+      </c>
+      <c r="E107" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="F107" s="23" t="s">
         <v>298</v>
-      </c>
-      <c r="E107" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="F107" s="23" t="s">
-        <v>299</v>
       </c>
       <c r="G107" s="16" t="s">
         <v>103</v>
@@ -4529,7 +4519,7 @@
       <c r="H107" s="16"/>
       <c r="I107" s="23"/>
     </row>
-    <row r="108" spans="1:9" s="19" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" s="19" customFormat="1" ht="39.75" customHeight="1">
       <c r="A108" s="16" t="s">
         <v>282</v>
       </c>
@@ -4540,8 +4530,8 @@
       <c r="D108" s="17" t="s">
         <v>285</v>
       </c>
-      <c r="E108" s="16" t="s">
-        <v>30</v>
+      <c r="E108" s="31" t="s">
+        <v>25</v>
       </c>
       <c r="F108" s="16"/>
       <c r="G108" s="16" t="s">
@@ -4550,7 +4540,7 @@
       <c r="H108" s="16"/>
       <c r="I108" s="23"/>
     </row>
-    <row r="109" spans="1:9" s="19" customFormat="1" ht="68.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" s="19" customFormat="1" ht="68.25" customHeight="1">
       <c r="A109" s="16" t="s">
         <v>289</v>
       </c>
@@ -4558,20 +4548,22 @@
         <v>284</v>
       </c>
       <c r="C109" s="33"/>
-      <c r="D109" s="38" t="s">
+      <c r="D109" s="17" t="s">
         <v>294</v>
       </c>
-      <c r="E109" s="16" t="s">
-        <v>30</v>
+      <c r="E109" s="31" t="s">
+        <v>25</v>
       </c>
       <c r="F109" s="16"/>
       <c r="G109" s="16" t="s">
         <v>288</v>
       </c>
       <c r="H109" s="16"/>
-      <c r="I109" s="23"/>
-    </row>
-    <row r="110" spans="1:9" s="19" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I109" s="23" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" s="19" customFormat="1" ht="75" customHeight="1">
       <c r="A110" s="16" t="s">
         <v>289</v>
       </c>
@@ -4581,11 +4573,11 @@
       <c r="C110" s="33" t="s">
         <v>291</v>
       </c>
-      <c r="D110" s="38" t="s">
-        <v>300</v>
-      </c>
-      <c r="E110" s="16" t="s">
-        <v>30</v>
+      <c r="D110" s="17" t="s">
+        <v>299</v>
+      </c>
+      <c r="E110" s="31" t="s">
+        <v>25</v>
       </c>
       <c r="F110" s="16"/>
       <c r="G110" s="16" t="s">
@@ -4594,51 +4586,51 @@
       <c r="H110" s="16"/>
       <c r="I110" s="23"/>
     </row>
-    <row r="111" spans="1:9" s="19" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" s="19" customFormat="1" ht="75" customHeight="1">
       <c r="A111" s="16" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B111" s="23" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C111" s="33"/>
-      <c r="D111" s="38" t="s">
-        <v>305</v>
-      </c>
-      <c r="E111" s="16" t="s">
-        <v>30</v>
+      <c r="D111" s="17" t="s">
+        <v>304</v>
+      </c>
+      <c r="E111" s="31" t="s">
+        <v>25</v>
       </c>
       <c r="F111" s="16"/>
       <c r="G111" s="16" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H111" s="16"/>
       <c r="I111" s="23"/>
     </row>
-    <row r="112" spans="1:9" s="19" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" s="19" customFormat="1" ht="75" customHeight="1">
       <c r="A112" s="16" t="s">
+        <v>302</v>
+      </c>
+      <c r="B112" s="23" t="s">
         <v>303</v>
       </c>
-      <c r="B112" s="23" t="s">
-        <v>304</v>
-      </c>
       <c r="C112" s="33" t="s">
+        <v>305</v>
+      </c>
+      <c r="D112" s="17" t="s">
         <v>306</v>
       </c>
-      <c r="D112" s="38" t="s">
-        <v>307</v>
-      </c>
-      <c r="E112" s="16" t="s">
-        <v>30</v>
+      <c r="E112" s="31" t="s">
+        <v>25</v>
       </c>
       <c r="F112" s="16"/>
       <c r="G112" s="16" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H112" s="16"/>
       <c r="I112" s="23"/>
     </row>
-    <row r="118" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="4:4">
       <c r="D118" s="3" t="s">
         <v>292</v>
       </c>
@@ -4656,12 +4648,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4669,12 +4661,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
